--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoxu/IdeaProjects/Hotel_Newest/test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoxu/IdeaProjects/myProjects/FileTools/FileTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9874,8 +9874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="C1096" sqref="A1:C1096"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="E1084" sqref="E1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9630" uniqueCount="3282">
   <si>
     <t>A1</t>
   </si>
@@ -9549,6 +9549,330 @@
   </si>
   <si>
     <t>C1058</t>
+  </si>
+  <si>
+    <t>A1059</t>
+  </si>
+  <si>
+    <t>B1059</t>
+  </si>
+  <si>
+    <t>C1059</t>
+  </si>
+  <si>
+    <t>A1060</t>
+  </si>
+  <si>
+    <t>B1060</t>
+  </si>
+  <si>
+    <t>C1060</t>
+  </si>
+  <si>
+    <t>A1061</t>
+  </si>
+  <si>
+    <t>B1061</t>
+  </si>
+  <si>
+    <t>C1061</t>
+  </si>
+  <si>
+    <t>A1062</t>
+  </si>
+  <si>
+    <t>B1062</t>
+  </si>
+  <si>
+    <t>C1062</t>
+  </si>
+  <si>
+    <t>A1063</t>
+  </si>
+  <si>
+    <t>B1063</t>
+  </si>
+  <si>
+    <t>C1063</t>
+  </si>
+  <si>
+    <t>A1064</t>
+  </si>
+  <si>
+    <t>B1064</t>
+  </si>
+  <si>
+    <t>C1064</t>
+  </si>
+  <si>
+    <t>A1065</t>
+  </si>
+  <si>
+    <t>B1065</t>
+  </si>
+  <si>
+    <t>C1065</t>
+  </si>
+  <si>
+    <t>A1066</t>
+  </si>
+  <si>
+    <t>B1066</t>
+  </si>
+  <si>
+    <t>C1066</t>
+  </si>
+  <si>
+    <t>A1067</t>
+  </si>
+  <si>
+    <t>B1067</t>
+  </si>
+  <si>
+    <t>C1067</t>
+  </si>
+  <si>
+    <t>A1068</t>
+  </si>
+  <si>
+    <t>B1068</t>
+  </si>
+  <si>
+    <t>C1068</t>
+  </si>
+  <si>
+    <t>A1069</t>
+  </si>
+  <si>
+    <t>B1069</t>
+  </si>
+  <si>
+    <t>C1069</t>
+  </si>
+  <si>
+    <t>A1070</t>
+  </si>
+  <si>
+    <t>B1070</t>
+  </si>
+  <si>
+    <t>C1070</t>
+  </si>
+  <si>
+    <t>A1071</t>
+  </si>
+  <si>
+    <t>B1071</t>
+  </si>
+  <si>
+    <t>C1071</t>
+  </si>
+  <si>
+    <t>A1072</t>
+  </si>
+  <si>
+    <t>B1072</t>
+  </si>
+  <si>
+    <t>C1072</t>
+  </si>
+  <si>
+    <t>A1073</t>
+  </si>
+  <si>
+    <t>B1073</t>
+  </si>
+  <si>
+    <t>C1073</t>
+  </si>
+  <si>
+    <t>A1074</t>
+  </si>
+  <si>
+    <t>B1074</t>
+  </si>
+  <si>
+    <t>C1074</t>
+  </si>
+  <si>
+    <t>A1075</t>
+  </si>
+  <si>
+    <t>B1075</t>
+  </si>
+  <si>
+    <t>C1075</t>
+  </si>
+  <si>
+    <t>A1076</t>
+  </si>
+  <si>
+    <t>B1076</t>
+  </si>
+  <si>
+    <t>C1076</t>
+  </si>
+  <si>
+    <t>A1077</t>
+  </si>
+  <si>
+    <t>B1077</t>
+  </si>
+  <si>
+    <t>C1077</t>
+  </si>
+  <si>
+    <t>A1078</t>
+  </si>
+  <si>
+    <t>B1078</t>
+  </si>
+  <si>
+    <t>C1078</t>
+  </si>
+  <si>
+    <t>A1079</t>
+  </si>
+  <si>
+    <t>B1079</t>
+  </si>
+  <si>
+    <t>C1079</t>
+  </si>
+  <si>
+    <t>A1080</t>
+  </si>
+  <si>
+    <t>B1080</t>
+  </si>
+  <si>
+    <t>C1080</t>
+  </si>
+  <si>
+    <t>A1081</t>
+  </si>
+  <si>
+    <t>B1081</t>
+  </si>
+  <si>
+    <t>C1081</t>
+  </si>
+  <si>
+    <t>A1082</t>
+  </si>
+  <si>
+    <t>B1082</t>
+  </si>
+  <si>
+    <t>C1082</t>
+  </si>
+  <si>
+    <t>A1083</t>
+  </si>
+  <si>
+    <t>B1083</t>
+  </si>
+  <si>
+    <t>C1083</t>
+  </si>
+  <si>
+    <t>A1084</t>
+  </si>
+  <si>
+    <t>B1084</t>
+  </si>
+  <si>
+    <t>C1084</t>
+  </si>
+  <si>
+    <t>A1085</t>
+  </si>
+  <si>
+    <t>B1085</t>
+  </si>
+  <si>
+    <t>C1085</t>
+  </si>
+  <si>
+    <t>A1086</t>
+  </si>
+  <si>
+    <t>B1086</t>
+  </si>
+  <si>
+    <t>C1086</t>
+  </si>
+  <si>
+    <t>A1087</t>
+  </si>
+  <si>
+    <t>B1087</t>
+  </si>
+  <si>
+    <t>C1087</t>
+  </si>
+  <si>
+    <t>A1088</t>
+  </si>
+  <si>
+    <t>B1088</t>
+  </si>
+  <si>
+    <t>C1088</t>
+  </si>
+  <si>
+    <t>A1089</t>
+  </si>
+  <si>
+    <t>B1089</t>
+  </si>
+  <si>
+    <t>C1089</t>
+  </si>
+  <si>
+    <t>A1090</t>
+  </si>
+  <si>
+    <t>B1090</t>
+  </si>
+  <si>
+    <t>C1090</t>
+  </si>
+  <si>
+    <t>A1091</t>
+  </si>
+  <si>
+    <t>B1091</t>
+  </si>
+  <si>
+    <t>C1091</t>
+  </si>
+  <si>
+    <t>A1092</t>
+  </si>
+  <si>
+    <t>B1092</t>
+  </si>
+  <si>
+    <t>C1092</t>
+  </si>
+  <si>
+    <t>A1093</t>
+  </si>
+  <si>
+    <t>B1093</t>
+  </si>
+  <si>
+    <t>C1093</t>
+  </si>
+  <si>
+    <t>A1094</t>
+  </si>
+  <si>
+    <t>B1094</t>
+  </si>
+  <si>
+    <t>C1094</t>
   </si>
 </sst>
 </file>
@@ -21518,6 +21842,402 @@
         <v>3173</v>
       </c>
     </row>
+    <row r="1059">
+      <c r="A1059" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>3281</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9630" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12912" uniqueCount="3282">
   <si>
     <t>A1</t>
   </si>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12912" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12956" uniqueCount="3326">
   <si>
     <t>A1</t>
   </si>
@@ -9873,6 +9873,138 @@
   </si>
   <si>
     <t>C1094</t>
+  </si>
+  <si>
+    <t>key1        key2        key3</t>
+  </si>
+  <si>
+    <t>value1_1    value2_1    value3_1</t>
+  </si>
+  <si>
+    <t>value1_2    value2_2    value3_2</t>
+  </si>
+  <si>
+    <t>value1_3    value2_3    value3_3</t>
+  </si>
+  <si>
+    <t>value1_4    value2_4    value3_4</t>
+  </si>
+  <si>
+    <t>value1_5    value2_5    value3_5</t>
+  </si>
+  <si>
+    <t>value1_6    value2_6    value3_6</t>
+  </si>
+  <si>
+    <t>value1_7    value2_7    value3_7</t>
+  </si>
+  <si>
+    <t>value1_8    value2_8    value3_8</t>
+  </si>
+  <si>
+    <t>value1_9    value2_9    value3_9</t>
+  </si>
+  <si>
+    <t>value1_10   value2_10   value3_10</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>val1_1</t>
+  </si>
+  <si>
+    <t>val2_1</t>
+  </si>
+  <si>
+    <t>val3_1</t>
+  </si>
+  <si>
+    <t>val1_2</t>
+  </si>
+  <si>
+    <t>val2_2</t>
+  </si>
+  <si>
+    <t>val3_2</t>
+  </si>
+  <si>
+    <t>val1_3</t>
+  </si>
+  <si>
+    <t>val2_3</t>
+  </si>
+  <si>
+    <t>val3_3</t>
+  </si>
+  <si>
+    <t>val1_4</t>
+  </si>
+  <si>
+    <t>val2_4</t>
+  </si>
+  <si>
+    <t>val3_4</t>
+  </si>
+  <si>
+    <t>val1_5</t>
+  </si>
+  <si>
+    <t>val2_5</t>
+  </si>
+  <si>
+    <t>val3_5</t>
+  </si>
+  <si>
+    <t>val1_6</t>
+  </si>
+  <si>
+    <t>val2_6</t>
+  </si>
+  <si>
+    <t>val3_6</t>
+  </si>
+  <si>
+    <t>val1_7</t>
+  </si>
+  <si>
+    <t>val2_7</t>
+  </si>
+  <si>
+    <t>val3_7</t>
+  </si>
+  <si>
+    <t>val1_8</t>
+  </si>
+  <si>
+    <t>val2_8</t>
+  </si>
+  <si>
+    <t>val3_8</t>
+  </si>
+  <si>
+    <t>val1_9</t>
+  </si>
+  <si>
+    <t>val2_9</t>
+  </si>
+  <si>
+    <t>val3_9</t>
+  </si>
+  <si>
+    <t>val1_10</t>
+  </si>
+  <si>
+    <t>val2_10</t>
+  </si>
+  <si>
+    <t>val3_10</t>
   </si>
 </sst>
 </file>
@@ -10206,123 +10338,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3293</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3294</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>3296</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3297</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3299</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3300</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3302</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3303</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>3305</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>3306</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>3308</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>3309</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>3311</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>3312</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>3314</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>3315</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>3317</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>3318</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>3320</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>3321</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>3323</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>3324</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="12">
